--- a/public/assets/result/Arji_4.xlsx
+++ b/public/assets/result/Arji_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -142,13 +142,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUGIONO</t>
+    <t>ARJI</t>
   </si>
 </sst>
 </file>
@@ -901,16 +898,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="J13" s="5">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="K13" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -938,16 +935,16 @@
         <v>27</v>
       </c>
       <c r="I14" s="5">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="J14" s="5">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="K14" s="5">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="L14" s="5">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -975,16 +972,16 @@
         <v>28</v>
       </c>
       <c r="I15" s="5">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="J15" s="5">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="K15" s="5">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="L15" s="5">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1012,16 +1009,16 @@
         <v>31</v>
       </c>
       <c r="I16" s="5">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="J16" s="5">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="K16" s="5">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="L16" s="5">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1049,16 +1046,16 @@
         <v>24</v>
       </c>
       <c r="I17" s="5">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="J17" s="5">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="K17" s="5">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="L17" s="5">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1086,19 +1083,19 @@
         <v>28</v>
       </c>
       <c r="I18" s="5">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="J18" s="5">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="K18" s="5">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="L18" s="5">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18"/>
     </row>
@@ -1123,16 +1120,16 @@
         <v>31</v>
       </c>
       <c r="I19" s="5">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="J19" s="5">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="K19" s="5">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="L19" s="5">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1160,19 +1157,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="5">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="J20" s="5">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="K20" s="5">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="L20" s="5">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="M20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20"/>
     </row>
@@ -1221,9 +1218,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="K26" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="N26" s="1"/>
     </row>
@@ -1239,10 +1234,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="D29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="L29" s="4"/>
       <c r="N29" s="1"/>
